--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3501.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3501.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055923558127855</v>
+        <v>3.314316511154175</v>
       </c>
       <c r="B1">
-        <v>2.819770481383521</v>
+        <v>3.034732818603516</v>
       </c>
       <c r="C1">
-        <v>6.451868625572223</v>
+        <v>2.679712295532227</v>
       </c>
       <c r="D1">
-        <v>2.527826889064869</v>
+        <v>2.42784857749939</v>
       </c>
       <c r="E1">
-        <v>1.49706226370281</v>
+        <v>1.724100589752197</v>
       </c>
     </row>
   </sheetData>
